--- a/PerformanceData/fdtd_profile.xlsx
+++ b/PerformanceData/fdtd_profile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongw\Dropbox\assignments\CIS565_GPU\final\GPUVerb\GPUVerb\PerformanceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8DB70994-26A9-426A-8D87-F18E92996B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B15D8F-F340-4E2B-8CDB-3E172C768932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1125" windowWidth="21600" windowHeight="13620"/>
+    <workbookView xWindow="6180" yWindow="1125" windowWidth="21600" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fdtd_profile" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,6 +760,15 @@
               <a:rPr lang="en-US" baseline="0"/>
               <a:t>GPU and CPU implementations</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(Lower = Faster)</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
@@ -1495,7 +1504,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Dimension</a:t>
+                  <a:t> Dimension (Meters by Meters)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2344,8 +2353,8 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>147636</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -2675,11 +2684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PerformanceData/fdtd_profile.xlsx
+++ b/PerformanceData/fdtd_profile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongw\Dropbox\assignments\CIS565_GPU\final\GPUVerb\GPUVerb\PerformanceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B15D8F-F340-4E2B-8CDB-3E172C768932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{321CED5F-DDFE-4FA6-9C00-00BEFC0BFB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1125" windowWidth="21600" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6180" yWindow="1110" windowWidth="21600" windowHeight="13635"/>
   </bookViews>
   <sheets>
     <sheet name="fdtd_profile" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,13 +731,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -745,11 +751,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime (miliseconds) Comparison</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> between</a:t>
+              <a:t>Runtime (miliseconds) Comparison Between</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -757,8 +759,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>GPU and CPU implementations</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>CPU and GPU FDTD implementations</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -766,10 +768,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>(Lower = Faster)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>(Lower = Better!!)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -786,13 +787,19 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -823,13 +830,19 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -987,142 +1000,142 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>15.5375</c:v>
+                  <c:v>18.0641</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.122800000000002</c:v>
+                  <c:v>19.873200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.1557</c:v>
+                  <c:v>27.721299999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.426499999999997</c:v>
+                  <c:v>35.767899999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.2226</c:v>
+                  <c:v>45.989199999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.935699999999997</c:v>
+                  <c:v>56.488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.032399999999996</c:v>
+                  <c:v>69.072000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.620999999999995</c:v>
+                  <c:v>85.247100000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.152600000000007</c:v>
+                  <c:v>93.858999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>108.57389999999999</c:v>
+                  <c:v>110.2526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>127.0307</c:v>
+                  <c:v>128.166</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>143.38159999999999</c:v>
+                  <c:v>145.18960000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>167.5265</c:v>
+                  <c:v>163.84540000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>180.66300000000001</c:v>
+                  <c:v>182.1019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>196.74180000000001</c:v>
+                  <c:v>198.18219999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>218.50219999999999</c:v>
+                  <c:v>219.82329999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>240.8289</c:v>
+                  <c:v>243.28739999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>274.68049999999999</c:v>
+                  <c:v>269.5299</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>286.74950000000001</c:v>
+                  <c:v>293.58679999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>311.35750000000002</c:v>
+                  <c:v>316.5883</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339.50869999999998</c:v>
+                  <c:v>345.45760000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>372.20580000000001</c:v>
+                  <c:v>375.74619999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>397.50229999999999</c:v>
+                  <c:v>406.63709999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>430.64760000000001</c:v>
+                  <c:v>442.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>453.8963</c:v>
+                  <c:v>459.8295</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>490.59530000000001</c:v>
+                  <c:v>493.57769999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>548.43439999999998</c:v>
+                  <c:v>527.22379999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>617.73400000000004</c:v>
+                  <c:v>565.42560000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>631.21749999999997</c:v>
+                  <c:v>602.47879999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>678.71450000000004</c:v>
+                  <c:v>667.11239999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>671.5779</c:v>
+                  <c:v>689.91729999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>715.1739</c:v>
+                  <c:v>733.05340000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>774.72630000000004</c:v>
+                  <c:v>759.98119999999994</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>800.39660000000003</c:v>
+                  <c:v>805.17280000000005</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>844.97310000000004</c:v>
+                  <c:v>854.0145</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>885.82399999999996</c:v>
+                  <c:v>886.17679999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>956.45989999999995</c:v>
+                  <c:v>941.70809999999994</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1006.4768</c:v>
+                  <c:v>988.4479</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1026.0117</c:v>
+                  <c:v>1042.2716</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1082.2086999999999</c:v>
+                  <c:v>1121.2022999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1129.4528</c:v>
+                  <c:v>1403.9184</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1164.3596</c:v>
+                  <c:v>1220.5096000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1222.7961</c:v>
+                  <c:v>1269.172</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1281.6831999999999</c:v>
+                  <c:v>1940.3468</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1368.8819000000001</c:v>
+                  <c:v>1350.4168</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1415.864</c:v>
+                  <c:v>1474.5518999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1130,7 +1143,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA4E-4AF1-B721-2D9A6763AE37}"/>
+              <c16:uniqueId val="{00000000-7779-42D3-A122-7401E2763C81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1142,20 +1155,23 @@
               <c:f>fdtd_profile!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> GPU time</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1312,151 +1328,345 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>7.3352000000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1726999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3129</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.7922000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3974000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.9127999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.1737000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8572000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.8042999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.400499999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.867100000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.8169</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.2143</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15.956799999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>37.895600000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.954999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.615600000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>25.133600000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.713999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.178999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>31.989599999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>29.9269</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>34.138599999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>30.738600000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40.6905</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.919199999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>46.973999999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>64.966300000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>52.112400000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>63.327300000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>79.158199999999994</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>63.632199999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>53.394599999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>61.630200000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>72.524199999999993</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>69.058800000000005</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>78.853999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>103.7225</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>82.921899999999994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>116.1408</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>113.36</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>105.07680000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>92.904899999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>97.344200000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>96.858500000000006</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>106.0522</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA4E-4AF1-B721-2D9A6763AE37}"/>
+              <c16:uniqueId val="{00000001-7779-42D3-A122-7401E2763C81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fdtd_profile!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>fdtd_profile!$A$2:$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>5x5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6x6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7x7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8x8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9x9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11x11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12x12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13x13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14x14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15x15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16x16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17x17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18x18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19x19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20x20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21x21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22x22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23x23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24x24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25x25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26x26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27x27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28x28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29x29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30x30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31x31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32x32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33x33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34x34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35x35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36x36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37x37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38x38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39x39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40x40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41x41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42x42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43x43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44x44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45x45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46x46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47x47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48x48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49x49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>fdtd_profile!$D$2:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>4.8487999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5498999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.733000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9962999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.9628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.430800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.4138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.5307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.075200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.296399999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.676500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.8733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.826500000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.199800000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.515900000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.650600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.953399999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.817399999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.375799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.850200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.3857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.972799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.661500000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72.986599999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.4908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.783900000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.724100000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88.812100000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>112.4478</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94.815600000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>156.3784</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169.06890000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>166.6754</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>144.95169999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>324.5564</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>467.21319999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>661.30740000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>246.97569999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>611.63390000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7779-42D3-A122-7401E2763C81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1469,11 +1679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1611352607"/>
-        <c:axId val="1611352191"/>
+        <c:axId val="389476080"/>
+        <c:axId val="389475664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1611352607"/>
+        <c:axId val="389476080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,11 +1696,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1500,11 +1709,20 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Grid</a:t>
+                  <a:t>Grid dimension</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(Meter</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Dimension (Meters by Meters)</a:t>
+                  <a:t>s by meters)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1523,11 +1741,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1547,9 +1764,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1563,9 +1780,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1576,7 +1792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611352191"/>
+        <c:crossAx val="389475664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1584,7 +1800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1611352191"/>
+        <c:axId val="389475664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1594,9 +1810,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1604,20 +1820,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1625,11 +1827,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1639,8 +1840,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>miliseconds</a:t>
+                  <a:t>Runtime</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Miliseconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1657,11 +1863,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1691,9 +1896,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1704,7 +1908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1611352607"/>
+        <c:crossAx val="389476080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1717,7 +1921,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1733,9 +1937,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1759,17 +1962,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1832,35 +2046,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1868,26 +2080,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1896,9 +2116,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1917,14 +2136,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1933,45 +2144,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1983,31 +2184,29 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2025,21 +2224,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2049,20 +2245,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2076,14 +2272,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2097,9 +2293,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2113,12 +2308,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2130,9 +2319,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2147,14 +2336,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2166,14 +2354,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2185,14 +2373,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2201,14 +2388,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2216,7 +2402,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2229,11 +2415,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2241,14 +2437,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2260,12 +2456,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2281,7 +2484,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2290,9 +2492,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2302,7 +2503,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2310,9 +2511,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2323,9 +2524,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2337,12 +2537,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2351,23 +2545,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748566CC-BB27-474E-F754-512251315014}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4225DC0F-ADFD-B028-314D-B0E241EFA628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2684,530 +2878,530 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>15.5375</v>
-      </c>
-      <c r="C2">
-        <v>7.3352000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18.0641</v>
+      </c>
+      <c r="D2">
+        <v>4.8487999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>20.122800000000002</v>
-      </c>
-      <c r="C3">
-        <v>6.1726999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19.873200000000001</v>
+      </c>
+      <c r="D3">
+        <v>7.7926000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>27.1557</v>
-      </c>
-      <c r="C4">
-        <v>5.3129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27.721299999999999</v>
+      </c>
+      <c r="D4">
+        <v>5.1340000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>35.426499999999997</v>
-      </c>
-      <c r="C5">
-        <v>5.7922000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35.767899999999997</v>
+      </c>
+      <c r="D5">
+        <v>8.5498999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>45.2226</v>
-      </c>
-      <c r="C6">
-        <v>6.3974000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45.989199999999997</v>
+      </c>
+      <c r="D6">
+        <v>6.3681000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>55.935699999999997</v>
-      </c>
-      <c r="C7">
-        <v>7.9127999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56.488</v>
+      </c>
+      <c r="D7">
+        <v>10.733000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>69.032399999999996</v>
-      </c>
-      <c r="C8">
-        <v>8.1737000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69.072000000000003</v>
+      </c>
+      <c r="D8">
+        <v>7.7362000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>78.620999999999995</v>
-      </c>
-      <c r="C9">
-        <v>8.8572000000000006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85.247100000000003</v>
+      </c>
+      <c r="D9">
+        <v>11.2524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>95.152600000000007</v>
-      </c>
-      <c r="C10">
-        <v>9.8042999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93.858999999999995</v>
+      </c>
+      <c r="D10">
+        <v>8.9962999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
-        <v>108.57389999999999</v>
-      </c>
-      <c r="C11">
-        <v>11.400499999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110.2526</v>
+      </c>
+      <c r="D11">
+        <v>13.6172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>127.0307</v>
-      </c>
-      <c r="C12">
-        <v>11.867100000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128.166</v>
+      </c>
+      <c r="D12">
+        <v>10.9628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
-        <v>143.38159999999999</v>
-      </c>
-      <c r="C13">
-        <v>12.8169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145.18960000000001</v>
+      </c>
+      <c r="D13">
+        <v>20.430800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
-        <v>167.5265</v>
-      </c>
-      <c r="C14">
-        <v>15.2143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163.84540000000001</v>
+      </c>
+      <c r="D14">
+        <v>14.4138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
-        <v>180.66300000000001</v>
-      </c>
-      <c r="C15">
-        <v>15.956799999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182.1019</v>
+      </c>
+      <c r="D15">
+        <v>26.5307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>196.74180000000001</v>
-      </c>
-      <c r="C16">
-        <v>37.895600000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>198.18219999999999</v>
+      </c>
+      <c r="D16">
+        <v>15.075200000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
-        <v>218.50219999999999</v>
-      </c>
-      <c r="C17">
-        <v>16.954999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>219.82329999999999</v>
+      </c>
+      <c r="D17">
+        <v>20.296399999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
-        <v>240.8289</v>
-      </c>
-      <c r="C18">
-        <v>25.615600000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243.28739999999999</v>
+      </c>
+      <c r="D18">
+        <v>29.676500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>274.68049999999999</v>
-      </c>
-      <c r="C19">
-        <v>25.133600000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>269.5299</v>
+      </c>
+      <c r="D19">
+        <v>27.8733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
-        <v>286.74950000000001</v>
-      </c>
-      <c r="C20">
-        <v>20.713999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>293.58679999999998</v>
+      </c>
+      <c r="D20">
+        <v>20.484400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
-        <v>311.35750000000002</v>
-      </c>
-      <c r="C21">
-        <v>23.178999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>316.5883</v>
+      </c>
+      <c r="D21">
+        <v>43.826500000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
-        <v>339.50869999999998</v>
-      </c>
-      <c r="C22">
-        <v>31.989599999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>345.45760000000001</v>
+      </c>
+      <c r="D22">
+        <v>35.199800000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
-        <v>372.20580000000001</v>
-      </c>
-      <c r="C23">
-        <v>29.9269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>375.74619999999999</v>
+      </c>
+      <c r="D23">
+        <v>34.515900000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
-        <v>397.50229999999999</v>
-      </c>
-      <c r="C24">
-        <v>34.138599999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>406.63709999999998</v>
+      </c>
+      <c r="D24">
+        <v>27.650600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
-        <v>430.64760000000001</v>
-      </c>
-      <c r="C25">
-        <v>30.738600000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>442.2</v>
+      </c>
+      <c r="D25">
+        <v>31.953399999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
-        <v>453.8963</v>
-      </c>
-      <c r="C26">
-        <v>40.6905</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>459.8295</v>
+      </c>
+      <c r="D26">
+        <v>35.817399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
-        <v>490.59530000000001</v>
-      </c>
-      <c r="C27">
-        <v>34.919199999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>493.57769999999999</v>
+      </c>
+      <c r="D27">
+        <v>34.375799999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
-        <v>548.43439999999998</v>
-      </c>
-      <c r="C28">
-        <v>46.973999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>527.22379999999998</v>
+      </c>
+      <c r="D28">
+        <v>63.850200000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
-        <v>617.73400000000004</v>
-      </c>
-      <c r="C29">
-        <v>64.966300000000004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>565.42560000000003</v>
+      </c>
+      <c r="D29">
+        <v>71.3857</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
-        <v>631.21749999999997</v>
-      </c>
-      <c r="C30">
-        <v>52.112400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>602.47879999999998</v>
+      </c>
+      <c r="D30">
+        <v>55.972799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
-        <v>678.71450000000004</v>
-      </c>
-      <c r="C31">
-        <v>63.327300000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>667.11239999999998</v>
+      </c>
+      <c r="D31">
+        <v>67.661500000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
-        <v>671.5779</v>
-      </c>
-      <c r="C32">
-        <v>79.158199999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>689.91729999999995</v>
+      </c>
+      <c r="D32">
+        <v>72.986599999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
-        <v>715.1739</v>
-      </c>
-      <c r="C33">
-        <v>63.632199999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>733.05340000000001</v>
+      </c>
+      <c r="D33">
+        <v>62.4908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
-        <v>774.72630000000004</v>
-      </c>
-      <c r="C34">
-        <v>53.394599999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>759.98119999999994</v>
+      </c>
+      <c r="D34">
+        <v>74.783900000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
-        <v>800.39660000000003</v>
-      </c>
-      <c r="C35">
-        <v>61.630200000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>805.17280000000005</v>
+      </c>
+      <c r="D35">
+        <v>80.724100000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
-        <v>844.97310000000004</v>
-      </c>
-      <c r="C36">
-        <v>72.524199999999993</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>854.0145</v>
+      </c>
+      <c r="D36">
+        <v>88.812100000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
-        <v>885.82399999999996</v>
-      </c>
-      <c r="C37">
-        <v>69.058800000000005</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>886.17679999999996</v>
+      </c>
+      <c r="D37">
+        <v>112.4478</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
-        <v>956.45989999999995</v>
-      </c>
-      <c r="C38">
-        <v>78.853999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>941.70809999999994</v>
+      </c>
+      <c r="D38">
+        <v>94.815600000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1006.4768</v>
-      </c>
-      <c r="C39">
-        <v>103.7225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>988.4479</v>
+      </c>
+      <c r="D39">
+        <v>156.3784</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1026.0117</v>
-      </c>
-      <c r="C40">
-        <v>82.921899999999994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1042.2716</v>
+      </c>
+      <c r="D40">
+        <v>169.06890000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1082.2086999999999</v>
-      </c>
-      <c r="C41">
-        <v>116.1408</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1121.2022999999999</v>
+      </c>
+      <c r="D41">
+        <v>166.6754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1129.4528</v>
-      </c>
-      <c r="C42">
-        <v>113.36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1403.9184</v>
+      </c>
+      <c r="D42">
+        <v>144.95169999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1164.3596</v>
-      </c>
-      <c r="C43">
-        <v>105.07680000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1220.5096000000001</v>
+      </c>
+      <c r="D43">
+        <v>324.5564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1222.7961</v>
-      </c>
-      <c r="C44">
-        <v>92.904899999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1269.172</v>
+      </c>
+      <c r="D44">
+        <v>467.21319999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1281.6831999999999</v>
-      </c>
-      <c r="C45">
-        <v>97.344200000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1940.3468</v>
+      </c>
+      <c r="D45">
+        <v>661.30740000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1368.8819000000001</v>
-      </c>
-      <c r="C46">
-        <v>96.858500000000006</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1350.4168</v>
+      </c>
+      <c r="D46">
+        <v>246.97569999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
-        <v>1415.864</v>
-      </c>
-      <c r="C47">
-        <v>106.0522</v>
+        <v>1474.5518999999999</v>
+      </c>
+      <c r="D47">
+        <v>611.63390000000004</v>
       </c>
     </row>
   </sheetData>

--- a/PerformanceData/fdtd_profile.xlsx
+++ b/PerformanceData/fdtd_profile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongw\Dropbox\assignments\CIS565_GPU\final\GPUVerb\GPUVerb\PerformanceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{321CED5F-DDFE-4FA6-9C00-00BEFC0BFB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4628BE79-30C4-4F8A-9B12-7AB4B9DE9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="1110" windowWidth="21600" windowHeight="13635"/>
+    <workbookView xWindow="240" yWindow="420" windowWidth="21600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fdtd_profile" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -731,19 +731,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -751,7 +745,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Runtime (miliseconds) Comparison Between</a:t>
+              <a:t>R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>untime Comparison between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> GPU and CPU</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -759,18 +761,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>CPU and GPU FDTD implementations</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>FDTD Solver (The lower the better)</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(Lower = Better!!)</a:t>
-            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -787,19 +781,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -830,19 +818,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1143,7 +1125,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7779-42D3-A122-7401E2763C81}"/>
+              <c16:uniqueId val="{00000000-46A1-4726-B77F-509EB8A38A0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1155,23 +1137,20 @@
               <c:f>fdtd_profile!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> GPU time</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1328,345 +1307,151 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>4.8487999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7926000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5498999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3681000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.733000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7362000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9962999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.9628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.430800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.4138</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.5307</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.075200000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.296399999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.676500000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.8733</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.484400000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.826500000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.199800000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34.515900000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.650600000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.953399999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.817399999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.375799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.850200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>71.3857</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.972799999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>67.661500000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72.986599999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62.4908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74.783900000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80.724100000000007</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>88.812100000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>112.4478</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>94.815600000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>156.3784</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>169.06890000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>166.6754</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>144.95169999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>324.5564</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>467.21319999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>661.30740000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>246.97569999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>611.63390000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7779-42D3-A122-7401E2763C81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>fdtd_profile!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v> GPU time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>fdtd_profile!$A$2:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9x9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11x11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13x13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15x15</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17x17</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>19x19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21x21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>23x23</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24x24</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25x25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26x26</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27x27</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28x28</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>29x29</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30x30</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>31x31</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>32x32</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>33x33</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>34x34</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35x35</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>36x36</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>37x37</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38x38</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>39x39</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>40x40</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>41x41</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42x42</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43x43</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>44x44</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45x45</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>46x46</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>47x47</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48x48</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>49x49</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>50x50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>fdtd_profile!$D$2:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>4.8487999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7926000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1340000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5498999999999992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3681000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.733000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7362000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.2524</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9962999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.6172</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.9628</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.430800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14.4138</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>26.5307</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.075200000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.296399999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29.676500000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.8733</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20.484400000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43.826500000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>35.199800000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>34.515900000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27.650600000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>31.953399999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>35.817399999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>34.375799999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.850200000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>71.3857</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>55.972799999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>67.661500000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>72.986599999999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>62.4908</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>74.783900000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>80.724100000000007</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>88.812100000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>112.4478</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>94.815600000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>156.3784</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>169.06890000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>166.6754</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>144.95169999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>324.5564</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>467.21319999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>661.30740000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>246.97569999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>611.63390000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7779-42D3-A122-7401E2763C81}"/>
+              <c16:uniqueId val="{00000001-46A1-4726-B77F-509EB8A38A0D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1679,11 +1464,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="389476080"/>
-        <c:axId val="389475664"/>
+        <c:axId val="1027464175"/>
+        <c:axId val="1027465007"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="389476080"/>
+        <c:axId val="1027464175"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,10 +1481,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1709,22 +1495,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Grid dimension</a:t>
+                  <a:t>Grid Size in Meters</a:t>
                 </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>(Meter</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t>s by meters)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1741,10 +1513,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1764,9 +1537,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1780,8 +1553,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1792,7 +1566,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389475664"/>
+        <c:crossAx val="1027465007"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1800,7 +1574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="389475664"/>
+        <c:axId val="1027465007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,9 +1584,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1827,10 +1601,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
-                        <a:lumMod val="85000"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1840,11 +1615,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Runtime</a:t>
+                  <a:t>FDTD</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (Miliseconds)</a:t>
+                  <a:t> Runtime (ms)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1863,10 +1638,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1896,8 +1672,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1908,7 +1685,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389476080"/>
+        <c:crossAx val="1027464175"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,8 +1714,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1962,28 +1740,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2046,33 +1813,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2080,34 +1849,26 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2116,8 +1877,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2136,6 +1898,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2144,35 +1914,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2184,29 +1964,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -2224,18 +2006,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2245,20 +2030,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2272,14 +2057,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2293,8 +2078,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2308,6 +2094,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2319,9 +2111,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2336,13 +2128,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2354,14 +2147,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2373,13 +2166,14 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2388,13 +2182,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2402,7 +2197,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2415,21 +2210,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2437,14 +2222,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2456,19 +2241,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2484,6 +2262,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2492,8 +2271,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2503,7 +2283,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2511,9 +2291,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2524,8 +2304,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2537,6 +2318,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2546,22 +2333,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4225DC0F-ADFD-B028-314D-B0E241EFA628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{361200A7-079F-A395-56AA-55BD67DF8A6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2878,529 +2665,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
         <v>18.0641</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>4.8487999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
         <v>19.873200000000001</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>7.7926000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>27.721299999999999</v>
       </c>
-      <c r="D4">
+      <c r="C4">
         <v>5.1340000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>35.767899999999997</v>
       </c>
-      <c r="D5">
+      <c r="C5">
         <v>8.5498999999999992</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>45.989199999999997</v>
       </c>
-      <c r="D6">
+      <c r="C6">
         <v>6.3681000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>56.488</v>
       </c>
-      <c r="D7">
+      <c r="C7">
         <v>10.733000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
         <v>69.072000000000003</v>
       </c>
-      <c r="D8">
+      <c r="C8">
         <v>7.7362000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>85.247100000000003</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>11.2524</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
         <v>93.858999999999995</v>
       </c>
-      <c r="D10">
+      <c r="C10">
         <v>8.9962999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11">
         <v>110.2526</v>
       </c>
-      <c r="D11">
+      <c r="C11">
         <v>13.6172</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
         <v>128.166</v>
       </c>
-      <c r="D12">
+      <c r="C12">
         <v>10.9628</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13">
         <v>145.18960000000001</v>
       </c>
-      <c r="D13">
+      <c r="C13">
         <v>20.430800000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14">
         <v>163.84540000000001</v>
       </c>
-      <c r="D14">
+      <c r="C14">
         <v>14.4138</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15">
         <v>182.1019</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>26.5307</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
         <v>198.18219999999999</v>
       </c>
-      <c r="D16">
+      <c r="C16">
         <v>15.075200000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17">
         <v>219.82329999999999</v>
       </c>
-      <c r="D17">
+      <c r="C17">
         <v>20.296399999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>243.28739999999999</v>
       </c>
-      <c r="D18">
+      <c r="C18">
         <v>29.676500000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>269.5299</v>
       </c>
-      <c r="D19">
+      <c r="C19">
         <v>27.8733</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>293.58679999999998</v>
       </c>
-      <c r="D20">
+      <c r="C20">
         <v>20.484400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>316.5883</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>43.826500000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22">
         <v>345.45760000000001</v>
       </c>
-      <c r="D22">
+      <c r="C22">
         <v>35.199800000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23">
         <v>375.74619999999999</v>
       </c>
-      <c r="D23">
+      <c r="C23">
         <v>34.515900000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24">
         <v>406.63709999999998</v>
       </c>
-      <c r="D24">
+      <c r="C24">
         <v>27.650600000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25">
         <v>442.2</v>
       </c>
-      <c r="D25">
+      <c r="C25">
         <v>31.953399999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26">
         <v>459.8295</v>
       </c>
-      <c r="D26">
+      <c r="C26">
         <v>35.817399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27">
         <v>493.57769999999999</v>
       </c>
-      <c r="D27">
+      <c r="C27">
         <v>34.375799999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28">
         <v>527.22379999999998</v>
       </c>
-      <c r="D28">
+      <c r="C28">
         <v>63.850200000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29">
         <v>565.42560000000003</v>
       </c>
-      <c r="D29">
+      <c r="C29">
         <v>71.3857</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30">
         <v>602.47879999999998</v>
       </c>
-      <c r="D30">
+      <c r="C30">
         <v>55.972799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
       <c r="B31">
         <v>667.11239999999998</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>67.661500000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32">
         <v>689.91729999999995</v>
       </c>
-      <c r="D32">
+      <c r="C32">
         <v>72.986599999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33">
         <v>733.05340000000001</v>
       </c>
-      <c r="D33">
+      <c r="C33">
         <v>62.4908</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34">
         <v>759.98119999999994</v>
       </c>
-      <c r="D34">
+      <c r="C34">
         <v>74.783900000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35">
         <v>805.17280000000005</v>
       </c>
-      <c r="D35">
+      <c r="C35">
         <v>80.724100000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36">
         <v>854.0145</v>
       </c>
-      <c r="D36">
+      <c r="C36">
         <v>88.812100000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37">
         <v>886.17679999999996</v>
       </c>
-      <c r="D37">
+      <c r="C37">
         <v>112.4478</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38">
         <v>941.70809999999994</v>
       </c>
-      <c r="D38">
+      <c r="C38">
         <v>94.815600000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39">
         <v>988.4479</v>
       </c>
-      <c r="D39">
+      <c r="C39">
         <v>156.3784</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
       <c r="B40">
         <v>1042.2716</v>
       </c>
-      <c r="D40">
+      <c r="C40">
         <v>169.06890000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41">
         <v>1121.2022999999999</v>
       </c>
-      <c r="D41">
+      <c r="C41">
         <v>166.6754</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
       <c r="B42">
         <v>1403.9184</v>
       </c>
-      <c r="D42">
+      <c r="C42">
         <v>144.95169999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43">
         <v>1220.5096000000001</v>
       </c>
-      <c r="D43">
+      <c r="C43">
         <v>324.5564</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44">
         <v>1269.172</v>
       </c>
-      <c r="D44">
+      <c r="C44">
         <v>467.21319999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45">
         <v>1940.3468</v>
       </c>
-      <c r="D45">
+      <c r="C45">
         <v>661.30740000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46">
         <v>1350.4168</v>
       </c>
-      <c r="D46">
+      <c r="C46">
         <v>246.97569999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
       <c r="B47">
         <v>1474.5518999999999</v>
       </c>
-      <c r="D47">
+      <c r="C47">
         <v>611.63390000000004</v>
       </c>
     </row>

--- a/PerformanceData/fdtd_profile.xlsx
+++ b/PerformanceData/fdtd_profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tongw\Dropbox\assignments\CIS565_GPU\final\GPUVerb\GPUVerb\PerformanceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4628BE79-30C4-4F8A-9B12-7AB4B9DE9886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F1EFC6-6AB8-4E15-8EC6-A12F653DE2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="420" windowWidth="21600" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1102,7 +1102,7 @@
                   <c:v>1121.2022999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1403.9184</c:v>
+                  <c:v>1203.9184</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1220.5096000000001</c:v>
@@ -1111,7 +1111,7 @@
                   <c:v>1269.172</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1940.3468</c:v>
+                  <c:v>1430.3468</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1350.4168</c:v>
@@ -1437,10 +1437,10 @@
                   <c:v>467.21319999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>661.30740000000003</c:v>
+                  <c:v>461.30739999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>246.97569999999999</c:v>
+                  <c:v>546.97569999999996</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>611.63390000000004</c:v>
@@ -2668,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3130,7 +3130,7 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1403.9184</v>
+        <v>1203.9184</v>
       </c>
       <c r="C42">
         <v>144.95169999999999</v>
@@ -3163,10 +3163,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1940.3468</v>
+        <v>1430.3468</v>
       </c>
       <c r="C45">
-        <v>661.30740000000003</v>
+        <v>461.30739999999997</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>1350.4168</v>
       </c>
       <c r="C46">
-        <v>246.97569999999999</v>
+        <v>546.97569999999996</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
